--- a/Documentacao/EspecificacaoClasse/Especificação de Classe- Funcionário.xlsx
+++ b/Documentacao/EspecificacaoClasse/Especificação de Classe- Funcionário.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fivestars\Documentacao\EspecificacaoClasse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858C0144-B1D8-42D4-82A0-A8F558DF3F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEC65B4-06EE-41B9-96B0-71630FFFD552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>ESPECIFICAÇÃO DE CLASSE</t>
   </si>
@@ -154,6 +154,260 @@
       <t xml:space="preserve">Funcionario </t>
     </r>
   </si>
+  <si>
+    <t>Varchar</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Este campo só deve
+aceitar letras</t>
+  </si>
+  <si>
+    <t>imagem</t>
+  </si>
+  <si>
+    <t>Identificador da
+ Categoria</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Nome: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Produto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.Descrição:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Classe que representa o registro de produtos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3.Orientação para implementação: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fornece dados para a classe Carrinho e recebe da classe Categoria</t>
+    </r>
+  </si>
+  <si>
+    <t>id_Produto</t>
+  </si>
+  <si>
+    <t>Identificador do
+ Produto</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>nome_Produto</t>
+  </si>
+  <si>
+    <t>Nome do
+ produto</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>Descrição do produto</t>
+  </si>
+  <si>
+    <t>estoque</t>
+  </si>
+  <si>
+    <t>Estoque Total</t>
+  </si>
+  <si>
+    <t>Estoque_Min</t>
+  </si>
+  <si>
+    <t>Estoque mínimo</t>
+  </si>
+  <si>
+    <t>Estoque_Max</t>
+  </si>
+  <si>
+    <t>Estoque máximo</t>
+  </si>
+  <si>
+    <t>valorUnitario</t>
+  </si>
+  <si>
+    <t>Valor do Produto</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Status do Produto</t>
+  </si>
+  <si>
+    <t>Imagem do produto</t>
+  </si>
+  <si>
+    <t>cod_Produto</t>
+  </si>
+  <si>
+    <t>Codigo do
+ Produto</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Nome: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Carrinho</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.Descrição:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Classe que representa o Carrinho de compras</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3.Orientação para implementação: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Recebe dados das classes Cliente, Pagamento e Produto</t>
+    </r>
+  </si>
+  <si>
+    <t>id_Carrinho</t>
+  </si>
+  <si>
+    <t>Identificador do
+ Carrinho</t>
+  </si>
+  <si>
+    <t>id_Cliente</t>
+  </si>
+  <si>
+    <t>Identificador do
+ Cliente</t>
+  </si>
+  <si>
+    <t>subTotal</t>
+  </si>
+  <si>
+    <t>SubTotal da
+ compra</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Total da
+ compra</t>
+  </si>
+  <si>
+    <t>desconto</t>
+  </si>
+  <si>
+    <t>Desconto no valor
+ da compra</t>
+  </si>
+  <si>
+    <t>adiconal</t>
+  </si>
+  <si>
+    <t>Adicional no valor
+ da compra</t>
+  </si>
+  <si>
+    <t>formaPagamento</t>
+  </si>
+  <si>
+    <t>Identificador do
+ Pagamento</t>
+  </si>
+  <si>
+    <t>quantidade</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>valor_Unitário</t>
+  </si>
+  <si>
+    <t>Valor da 
+Unidade</t>
+  </si>
 </sst>
 </file>
 
@@ -162,11 +416,18 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -285,47 +546,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,17 +863,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I999"/>
+  <dimension ref="B1:I963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
@@ -562,7 +882,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="9"/>
@@ -572,7 +892,7 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="9"/>
@@ -582,7 +902,7 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="9"/>
@@ -592,7 +912,7 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="9"/>
@@ -602,7 +922,7 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="9"/>
@@ -618,7 +938,7 @@
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="9"/>
@@ -629,144 +949,696 @@
       <c r="B7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>6</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>999999</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="5" t="s">
+    <row r="9" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>6</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>999999</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
+    <row r="10" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="6">
+        <v>9999.99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G20" s="4">
         <v>6</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="H20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="4">
         <v>999999</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
+    <row r="21" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="4">
+        <v>6</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="4">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="4">
         <v>20</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="H22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="4">
+        <v>80</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="4">
+        <v>6</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="4">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4">
+        <v>6</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="4">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4">
+        <v>6</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="4">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G27" s="17">
         <v>10.199999999999999</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I27" s="18">
         <v>9999.99</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="4">
+        <v>50</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="4">
+        <v>30</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="4:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D42" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="23">
+        <v>6</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="23">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D43" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="23">
+        <v>6</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="23">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D44" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="23">
+        <v>6</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="23">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D45" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="23">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="25">
+        <v>9999.99</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D46" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="23">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="25">
+        <v>9999.99</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D47" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="23">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="25">
+        <v>9999.99</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D48" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="23">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="25">
+        <v>9999.99</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D49" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="23">
+        <v>1</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D50" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="23">
+        <v>6</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="23">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D51" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="23">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="25">
+        <v>9999.99</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="4:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1666,44 +2538,20 @@
     <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="18">
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
